--- a/SCBAA/2020/Region 10.xlsx
+++ b/SCBAA/2020/Region 10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\RESEARCH\2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mngx\thesis\SCBAA\2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E16CEFA-5F04-4972-A72A-3D8089528384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77FB3A37-A986-49E3-A4D0-001A6032FE20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13005" yWindow="1140" windowWidth="11370" windowHeight="12495" firstSheet="6" activeTab="8" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
+    <workbookView xWindow="3180" yWindow="1005" windowWidth="14880" windowHeight="11070" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
   </bookViews>
   <sheets>
     <sheet name="Tangub" sheetId="10" r:id="rId1"/>
@@ -27,6 +27,13 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1595,8 +1602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1EECD59-C1E3-4A87-85F0-D27E48B54FFB}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="C2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView tabSelected="1" topLeftCell="C2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1754,7 +1761,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="30">
-        <f t="shared" ref="E14" si="0">SUM(E11:E13)</f>
         <v>10377908</v>
       </c>
     </row>
@@ -1808,7 +1814,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="30">
-        <f t="shared" ref="E19" si="1">SUM(E16:E18)</f>
         <v>70833243</v>
       </c>
     </row>
@@ -1999,7 +2004,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="30">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>649871871</v>
       </c>
     </row>
@@ -2576,7 +2580,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="35">
-        <f>SUM(E41:E92)</f>
         <v>424777828</v>
       </c>
     </row>
@@ -2743,7 +2746,6 @@
         <v>13</v>
       </c>
       <c r="E110" s="38">
-        <f>23942100+6984386</f>
         <v>30926486</v>
       </c>
     </row>
@@ -2752,7 +2754,6 @@
         <v>59</v>
       </c>
       <c r="E111" s="22">
-        <f>SUM(E95:E110)</f>
         <v>34630875</v>
       </c>
     </row>
@@ -2764,7 +2765,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="21">
-        <f>SUM(E93,E111)</f>
         <v>459408703</v>
       </c>
     </row>
@@ -2787,7 +2787,7 @@
   <dimension ref="A1:I112"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+      <selection activeCell="F16" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2934,7 +2934,6 @@
         <v>26</v>
       </c>
       <c r="E13" s="24">
-        <f>20968403.09+33287799.14</f>
         <v>54256202.230000004</v>
       </c>
     </row>
@@ -2946,7 +2945,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="30">
-        <f t="shared" ref="E14" si="0">SUM(E11:E13)</f>
         <v>1887352025.6199999</v>
       </c>
     </row>
@@ -3000,7 +2998,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="30">
-        <f t="shared" ref="E19" si="1">SUM(E16:E18)</f>
         <v>385173842.51999998</v>
       </c>
     </row>
@@ -3191,7 +3188,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="30">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>4395737774.1399994</v>
       </c>
     </row>
@@ -3768,7 +3764,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="35">
-        <f>SUM(E41:E92)</f>
         <v>3933834808.04</v>
       </c>
     </row>
@@ -3943,7 +3938,6 @@
         <v>59</v>
       </c>
       <c r="E111" s="22">
-        <f>SUM(E95:E110)</f>
         <v>0</v>
       </c>
     </row>
@@ -3955,7 +3949,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="21">
-        <f>SUM(E93,E111)</f>
         <v>3933834808.04</v>
       </c>
     </row>
@@ -3978,7 +3971,7 @@
   <dimension ref="A1:I112"/>
   <sheetViews>
     <sheetView topLeftCell="C5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+      <selection activeCell="F20" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4136,7 +4129,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="30">
-        <f t="shared" ref="E14" si="0">SUM(E11:E13)</f>
         <v>88774407</v>
       </c>
     </row>
@@ -4179,7 +4171,6 @@
         <v>29</v>
       </c>
       <c r="E18" s="49">
-        <f>12889511+806638</f>
         <v>13696149</v>
       </c>
     </row>
@@ -4191,7 +4182,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="30">
-        <f t="shared" ref="E19" si="1">SUM(E16:E18)</f>
         <v>27622383</v>
       </c>
     </row>
@@ -4382,7 +4372,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="30">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>575322827</v>
       </c>
     </row>
@@ -4939,7 +4928,6 @@
         <v>50</v>
       </c>
       <c r="E91" s="23">
-        <f>9916035+16488203</f>
         <v>26404238</v>
       </c>
     </row>
@@ -4960,7 +4948,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="35">
-        <f>SUM(E41:E92)</f>
         <v>523468634</v>
       </c>
     </row>
@@ -5127,7 +5114,6 @@
         <v>13</v>
       </c>
       <c r="E110" s="38">
-        <f>50722512+6592460</f>
         <v>57314972</v>
       </c>
     </row>
@@ -5136,7 +5122,6 @@
         <v>59</v>
       </c>
       <c r="E111" s="22">
-        <f>SUM(E95:E110)</f>
         <v>76510774</v>
       </c>
     </row>
@@ -5148,7 +5133,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="21">
-        <f>SUM(E93,E111)</f>
         <v>599979408</v>
       </c>
     </row>
@@ -5171,7 +5155,7 @@
   <dimension ref="A1:I112"/>
   <sheetViews>
     <sheetView topLeftCell="C5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+      <selection activeCell="F19" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5329,7 +5313,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="30">
-        <f t="shared" ref="E14" si="0">SUM(E11:E13)</f>
         <v>82583326.810000002</v>
       </c>
     </row>
@@ -5372,7 +5355,6 @@
         <v>29</v>
       </c>
       <c r="E18" s="53">
-        <f>1717633.89+6578294.8</f>
         <v>8295928.6899999995</v>
       </c>
     </row>
@@ -5384,7 +5366,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="30">
-        <f t="shared" ref="E19" si="1">SUM(E16:E18)</f>
         <v>32788727.960000001</v>
       </c>
     </row>
@@ -5575,7 +5556,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="30">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>1217910221.99</v>
       </c>
     </row>
@@ -6152,7 +6132,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="35">
-        <f>SUM(E41:E92)</f>
         <v>960492534.19000006</v>
       </c>
     </row>
@@ -6327,7 +6306,6 @@
         <v>59</v>
       </c>
       <c r="E111" s="22">
-        <f>SUM(E95:E110)</f>
         <v>92671093.420000017</v>
       </c>
     </row>
@@ -6339,7 +6317,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="21">
-        <f>SUM(E93,E111)</f>
         <v>1053163627.6100001</v>
       </c>
     </row>
@@ -7552,7 +7529,7 @@
   <dimension ref="A1:I112"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+      <selection activeCell="F18" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7710,7 +7687,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="30">
-        <f t="shared" ref="E14" si="0">SUM(E11:E13)</f>
         <v>22626440.299999997</v>
       </c>
     </row>
@@ -7764,7 +7740,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="30">
-        <f t="shared" ref="E19" si="1">SUM(E16:E18)</f>
         <v>114645343.69</v>
       </c>
     </row>
@@ -7955,7 +7930,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="30">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>1760087057.48</v>
       </c>
     </row>
@@ -8001,7 +7975,6 @@
         <v>11</v>
       </c>
       <c r="E42" s="53">
-        <f>203827450.65+43976534.92</f>
         <v>247803985.56999999</v>
       </c>
     </row>
@@ -8013,7 +7986,6 @@
         <v>12</v>
       </c>
       <c r="E43" s="53">
-        <f>55317647.05+669988910.2</f>
         <v>725306557.25</v>
       </c>
     </row>
@@ -8025,7 +7997,6 @@
         <v>13</v>
       </c>
       <c r="E44" s="55">
-        <f>1540145.07+14164607.78</f>
         <v>15704752.85</v>
       </c>
     </row>
@@ -8380,7 +8351,6 @@
         <v>50</v>
       </c>
       <c r="E78" s="53">
-        <f>11152137.38+22650007.5</f>
         <v>33802144.880000003</v>
       </c>
     </row>
@@ -8516,7 +8486,6 @@
         <v>50</v>
       </c>
       <c r="E91" s="53">
-        <f>76411228.83+46000+2333565.65</f>
         <v>78790794.480000004</v>
       </c>
     </row>
@@ -8537,7 +8506,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="35">
-        <f>SUM(E41:E92)</f>
         <v>1442317053.6800003</v>
       </c>
     </row>
@@ -8704,7 +8672,6 @@
         <v>13</v>
       </c>
       <c r="E110" s="53">
-        <f>26872563.3+21864319+28455584.9</f>
         <v>77192467.199999988</v>
       </c>
     </row>
@@ -8713,7 +8680,6 @@
         <v>59</v>
       </c>
       <c r="E111" s="22">
-        <f>SUM(E95:E110)</f>
         <v>77192467.199999988</v>
       </c>
     </row>
@@ -8725,7 +8691,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="21">
-        <f>SUM(E93,E111)</f>
         <v>1519509520.8800004</v>
       </c>
     </row>
@@ -8748,7 +8713,7 @@
   <dimension ref="A1:I112"/>
   <sheetViews>
     <sheetView topLeftCell="C2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+      <selection activeCell="F16" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8873,7 +8838,6 @@
         <v>24</v>
       </c>
       <c r="E11" s="53">
-        <f>6509262.22+8754307.51</f>
         <v>15263569.73</v>
       </c>
     </row>
@@ -8907,7 +8871,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="30">
-        <f t="shared" ref="E14" si="0">SUM(E11:E13)</f>
         <v>55359916.580000006</v>
       </c>
     </row>
@@ -8950,7 +8913,6 @@
         <v>29</v>
       </c>
       <c r="E18" s="53">
-        <f>8069787.04+4253501.52</f>
         <v>12323288.559999999</v>
       </c>
     </row>
@@ -8962,7 +8924,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="30">
-        <f t="shared" ref="E19" si="1">SUM(E16:E18)</f>
         <v>35247679.109999999</v>
       </c>
     </row>
@@ -9153,7 +9114,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="30">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>751180939.5200001</v>
       </c>
     </row>
@@ -9451,7 +9411,6 @@
         <v>11</v>
       </c>
       <c r="E66" s="53">
-        <f>15359223.42+25330567.44</f>
         <v>40689790.859999999</v>
       </c>
     </row>
@@ -9463,7 +9422,6 @@
         <v>12</v>
       </c>
       <c r="E67" s="53">
-        <f>5717673.5+13574441.62</f>
         <v>19292115.119999997</v>
       </c>
     </row>
@@ -9475,7 +9433,6 @@
         <v>13</v>
       </c>
       <c r="E68" s="53">
-        <f>692290+2764457</f>
         <v>3456747</v>
       </c>
     </row>
@@ -9733,7 +9690,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="35">
-        <f>SUM(E41:E92)</f>
         <v>490034830.01999998</v>
       </c>
     </row>
@@ -9908,7 +9864,6 @@
         <v>59</v>
       </c>
       <c r="E111" s="22">
-        <f>SUM(E95:E110)</f>
         <v>0</v>
       </c>
     </row>
@@ -9920,7 +9875,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="21">
-        <f>SUM(E93,E111)</f>
         <v>490034830.01999998</v>
       </c>
     </row>
@@ -9943,7 +9897,7 @@
   <dimension ref="A1:I112"/>
   <sheetViews>
     <sheetView topLeftCell="C5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+      <selection activeCell="F20" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10101,7 +10055,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="30">
-        <f t="shared" ref="E14" si="0">SUM(E11:E13)</f>
         <v>244459197.06999999</v>
       </c>
     </row>
@@ -10155,7 +10108,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="30">
-        <f t="shared" ref="E19" si="1">SUM(E16:E18)</f>
         <v>96836459.020000011</v>
       </c>
     </row>
@@ -10346,7 +10298,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="30">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>1016222734.63</v>
       </c>
     </row>
@@ -10914,7 +10865,6 @@
         <v>51</v>
       </c>
       <c r="E92" s="53">
-        <f>10200000+12093862.87</f>
         <v>22293862.869999997</v>
       </c>
     </row>
@@ -10924,7 +10874,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="35">
-        <f>SUM(E41:E92)</f>
         <v>880557803.1099999</v>
       </c>
     </row>
@@ -11099,7 +11048,6 @@
         <v>59</v>
       </c>
       <c r="E111" s="22">
-        <f>SUM(E95:E110)</f>
         <v>0</v>
       </c>
     </row>
@@ -11111,7 +11059,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="21">
-        <f>SUM(E93,E111)</f>
         <v>880557803.1099999</v>
       </c>
     </row>
@@ -11133,8 +11080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D533712B-5FD4-4158-B8CC-8666A2A98AB3}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F15" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11292,7 +11239,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="30">
-        <f t="shared" ref="E14" si="0">SUM(E11:E13)</f>
         <v>148661052.12</v>
       </c>
     </row>
@@ -11335,7 +11281,6 @@
         <v>29</v>
       </c>
       <c r="E18" s="53">
-        <f>23971033.29+43852313.61</f>
         <v>67823346.900000006</v>
       </c>
     </row>
@@ -11347,7 +11292,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="30">
-        <f t="shared" ref="E19" si="1">SUM(E16:E18)</f>
         <v>87137513.689999998</v>
       </c>
     </row>
@@ -11538,7 +11482,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="30">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>1501161652.8300002</v>
       </c>
     </row>
@@ -11889,7 +11832,6 @@
         <v>12</v>
       </c>
       <c r="E71" s="19">
-        <f>37200000+85127932.35+48619744.29+28826601.43</f>
         <v>199774278.06999999</v>
       </c>
     </row>
@@ -12116,7 +12058,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="35">
-        <f>SUM(E41:E92)</f>
         <v>1382785711.5299997</v>
       </c>
     </row>
@@ -12291,7 +12232,6 @@
         <v>59</v>
       </c>
       <c r="E111" s="22">
-        <f>SUM(E95:E110)</f>
         <v>134970163.28999999</v>
       </c>
     </row>
@@ -12303,7 +12243,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="21">
-        <f>SUM(E93,E111)</f>
         <v>1517755874.8199997</v>
       </c>
     </row>
